--- a/BioSTEAM 2.x.x/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane/Spearman correlation lipidcane.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.191024476280979</v>
+        <v>0.174919925556797</v>
       </c>
     </row>
     <row r="3">
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02462161740086469</v>
+        <v>-0.001002302728092109</v>
       </c>
     </row>
     <row r="4">
@@ -400,37 +400,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002641464201658568</v>
+        <v>0.009606548928261955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fermentation-R301 efficiency [0.81, 0.9, 0.99]</t>
+          <t>Transesterification-R401 efficiency [0.81, 0.9, 0.99]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4527700625908025</v>
+        <v>0.06524768929790757</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Transesterification-R401 efficiency [0.81, 0.9, 0.99]</t>
+          <t>Transesterification-R402 efficiency [0.81, 0.9, 0.99]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03356448959857958</v>
+        <v>0.01451561098062444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Transesterification-R402 efficiency [0.81, 0.9, 0.99]</t>
+          <t>Fermentation-R301 efficiency [0.81, 0.9, 0.99]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0357479826139193</v>
+        <v>0.4556864272194571</v>
       </c>
     </row>
     <row r="8">
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002015280560611222</v>
+        <v>0.006528586725143468</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0143643124785725</v>
+        <v>-0.001474981882999275</v>
       </c>
     </row>
     <row r="10">
@@ -460,657 +460,657 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01192810396512416</v>
+        <v>-0.0004717962428718497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Transesterification reactor base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
+          <t>Crushing mill base cost (USD) [1.35e+06, 1.5e+06, 1.65e+06]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007353868422154736</v>
+        <v>-0.01884595947383838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Transesterification reactor exponent [0.45, 0.55, 0.65]</t>
+          <t>Crushing mill exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02744071050562841</v>
+        <v>-0.006944025877761033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Transesterification reactor electricity rate (kW / m^3) [1.35, 1.5, 1.65]</t>
+          <t>Crushing mill electricity rate (kW / kg/hr) [0.0054, 0.006, 0.0066]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.00109030650761226</v>
+        <v>-0.01960049070401963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
+          <t>Solids centrifuge base cost (USD) [6.12e+04, 6.8e+04, 7.48e+04]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01740403519216141</v>
+        <v>-0.008170081382803255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fermentation reactors exponent [0.4, 0.5, 0.6]</t>
+          <t>Solids centrifuge exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04461290712851628</v>
+        <v>-0.006924568980982758</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
+          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0008848173473926937</v>
+        <v>-0.04135919752636789</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fermentation agitators exponent [0.4, 0.5, 0.6]</t>
+          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0376845124513805</v>
+        <v>-0.01530228963609158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fermentation agitators electricity rate (kW / m3) [0.00532, 0.00591, 0.0065]</t>
+          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001574518142980725</v>
+        <v>-0.01146882919475317</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fermentation cleaning in place base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
+          <t>Conveying belt base cost (USD) [732, 813, 894]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0005921701676868067</v>
+        <v>0.01202572156902886</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fermentation cleaning in place exponent [0.5, 0.6, 0.7]</t>
+          <t>Conveying belt exponent [0.28, 0.38, 0.48]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001505909820236393</v>
+        <v>-0.004798429919937196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Magnetic separator base cost (USD) [4.8e+05, 5.33e+05, 5.87e+05]</t>
+          <t>Transesterification reactor base cost (USD) [1.35e+04, 1.5e+04, 1.65e+04]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00497011075880443</v>
+        <v>-0.0005382595415303817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Magnetic separator exponent [0.5, 0.6, 0.7]</t>
+          <t>Transesterification reactor exponent [0.45, 0.55, 0.65]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005359212022368481</v>
+        <v>-0.001283385651335426</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Shredder base cost (USD) [2.25e+06, 2.5e+06, 2.75e+06]</t>
+          <t>Transesterification reactor electricity rate (kW / m^3) [1.35, 1.5, 1.65]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.01285634173025367</v>
+        <v>0.01771711203668448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Shredder exponent [0.5, 0.6, 0.7]</t>
+          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02289961781198471</v>
+        <v>-0.1946407781856311</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Shredder electricity rate (kW / kg/hr) [0.0054, 0.006, 0.0066]</t>
+          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.01287850659514026</v>
+        <v>-0.04747690068307602</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Clarifier base cost (USD) [2.45e+03, 2.72e+03, 2.99e+03]</t>
+          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0097140950445638</v>
+        <v>-0.004421149712845988</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Clarifier exponent [0.48, 0.58, 0.68]</t>
+          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.004876018755040749</v>
+        <v>0.01815469464618778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Clarifier electricity rate (kW / ft^2) [0.00045, 0.0005, 0.00055]</t>
+          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.01409329381173175</v>
+        <v>-0.01345899097035964</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Crushing mill base cost (USD) [1.35e+06, 1.5e+06, 1.65e+06]</t>
+          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.00559126399965056</v>
+        <v>0.00494330477373219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Crushing mill exponent [0.5, 0.6, 0.7]</t>
+          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.003131893181275727</v>
+        <v>-0.002074077490963099</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Crushing mill electricity rate (kW / kg/hr) [0.0054, 0.006, 0.0066]</t>
+          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.04394033830161352</v>
+        <v>-0.01146769956270798</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.008945247813809912</v>
+        <v>-0.0001958803278352131</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
+          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0004127021925080876</v>
+        <v>-0.07959952551998101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
+          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01138607603944304</v>
+        <v>-0.05028369090734763</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
+          <t>Vibrating screen base cost (USD) [909, 1.01e+03, 1.11e+03]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.007749252597970103</v>
+        <v>-0.004969682694787307</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Vibrating screen exponent [0.81, 0.91, 1]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.0132358024814321</v>
+        <v>-0.02930254101210163</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
+          <t>Fermentation reactors base cost (USD) [7.6e+05, 8.44e+05, 9.28e+05]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02031282618851304</v>
+        <v>0.00876385225455409</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
+          <t>Fermentation reactors exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.008479705299188211</v>
+        <v>0.03807994558719782</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
+          <t>Fermentation agitators base cost (USD) [4.72e+04, 5.25e+04, 5.78e+04]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0251391176135647</v>
+        <v>-0.007994326783773069</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler base cost (USD) [2.57e+07, 2.86e+07, 3.14e+07]</t>
+          <t>Fermentation agitators exponent [0.4, 0.5, 0.6]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1871958696958348</v>
+        <v>0.0002953695478147818</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler exponent [0.5, 0.6, 0.7]</t>
+          <t>Fermentation agitators electricity rate (kW / m3) [0.00532, 0.00591, 0.0065]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.0355150024126001</v>
+        <v>-0.001262296562491863</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator boiler electricity rate (kW / kg/hr) [0.00377, 0.00419, 0.00461]</t>
+          <t>Fermentation cleaning in place base cost (USD) [3.79e+05, 4.21e+05, 4.63e+05]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.007561757966470318</v>
+        <v>-0.007104369884174793</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator base cost (USD) [2.74e+05, 3.05e+05, 3.36e+05]</t>
+          <t>Fermentation cleaning in place exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.009772096326883851</v>
+        <v>0.02814100336564013</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator deaerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Cooling tower base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.03498294600731783</v>
+        <v>0.02122453236898129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg base cost (USD) [3.6e+04, 4e+04, 4.4e+04]</t>
+          <t>Cooling tower exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.008414612976584518</v>
+        <v>0.01036022326240893</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator amine addition pkg exponent [0.5, 0.6, 0.7]</t>
+          <t>Cooling tower electricity rate (kW / kmol/hr) [0.00258, 0.00287, 0.00315]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.001119019724760789</v>
+        <v>0.001890375051615002</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system base cost (USD) [7.02e+04, 7.8e+04, 8.58e+04]</t>
+          <t>Cooling tower cooling water pump base cost (USD) [2.55e+05, 2.84e+05, 3.12e+05]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.006065767826630713</v>
+        <v>0.00540645976825839</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator hot process water softener system exponent [0.5, 0.6, 0.7]</t>
+          <t>Cooling tower cooling water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.02189798996391959</v>
+        <v>0.003390198087607923</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator base cost (USD) [8.55e+06, 9.5e+06, 1.04e+07]</t>
+          <t>Cooling tower cooling water pump electricity rate (kW / kmol/hr) [0.00165, 0.00183, 0.00202]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.08156201615848062</v>
+        <v>-0.00679119953564798</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator turbogenerator exponent [0.5, 0.6, 0.7]</t>
+          <t>Magnetic separator base cost (USD) [4.8e+05, 5.33e+05, 5.87e+05]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.05400955502438219</v>
+        <v>0.007775329367013174</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Conveying belt base cost (USD) [732, 813, 894]</t>
+          <t>Magnetic separator exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.01373210234128409</v>
+        <v>0.00654303328572133</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Conveying belt exponent [0.28, 0.38, 0.48]</t>
+          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0009343417333736692</v>
+        <v>0.003117043036681721</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Solids centrifuge base cost (USD) [6.12e+04, 6.8e+04, 7.48e+04]</t>
+          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.01277383289495331</v>
+        <v>-0.001698475459939018</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Solids centrifuge exponent [0.4, 0.5, 0.6]</t>
+          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.04063955788158231</v>
+        <v>-0.006051495122059805</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package base cost (USD) [1.24e+06, 1.38e+06, 1.51e+06]</t>
+          <t>Shredder base cost (USD) [2.25e+06, 2.5e+06, 2.75e+06]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0007705001588200063</v>
+        <v>-0.008047374369894974</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package exponent [0.6, 0.7, 0.8]</t>
+          <t>Shredder exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.003578468207138728</v>
+        <v>0.01970873042034921</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Chilled water package electricity rate (kW / kJ/hr) [-3.9e-05, -4.33e-05, -4.76e-05]</t>
+          <t>Shredder electricity rate (kW / kg/hr) [0.0054, 0.006, 0.0066]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02449226853169073</v>
+        <v>-0.005814657736586308</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
+          <t>Clarifier base cost (USD) [2.45e+03, 2.72e+03, 2.99e+03]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.02359625163185006</v>
+        <v>0.01541178215247128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
+          <t>Clarifier exponent [0.48, 0.58, 0.68]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.01509230546769222</v>
+        <v>0.01916579577463183</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
+          <t>Clarifier electricity rate (kW / ft^2) [0.00045, 0.0005, 0.00055]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.004812620640504825</v>
+        <v>-0.006685373259414929</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Process water center tank base cost (USD) [2.25e+05, 2.5e+05, 2.75e+05]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.01840285331211413</v>
+        <v>0.008192459367698374</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
+          <t>Process water center tank exponent [0.6, 0.7, 0.8]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.01025352396214096</v>
+        <v>0.005268107922724316</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
+          <t>Process water center process water pump base cost (USD) [1.38e+04, 1.53e+04, 1.68e+04]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.00431469550058782</v>
+        <v>0.02010547971621918</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
+          <t>Process water center process water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.01518779849551194</v>
+        <v>-0.007922545948901835</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
+          <t>Process water center process water pump electricity rate (kW / kg/hr) [9.7e-05, 0.000108, 0.000119]</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.006352175678087026</v>
+        <v>-0.003641730097669204</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Vibrating screen base cost (USD) [909, 1.01e+03, 1.11e+03]</t>
+          <t>Process water center makeup water pump base cost (USD) [6.18e+03, 6.86e+03, 7.55e+03]</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.006430751393230055</v>
+        <v>0.0006663292106531683</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Vibrating screen exponent [0.81, 0.91, 1]</t>
+          <t>Process water center makeup water pump exponent [0.7, 0.8, 0.9]</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.00277216974288679</v>
+        <v>0.01922750860910034</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column base cost (USD) [2.34e+06, 2.6e+06, 2.86e+06]</t>
+          <t>Process water center makeup water pump electricity rate (kW / kg/hr) [8.63e-05, 9.59e-05, 0.000105]</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.01042414140896565</v>
+        <v>0.01695813619832544</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column exponent [0.5, 0.6, 0.7]</t>
+          <t>Vent scrubber base cost (USD) [1.94e+05, 2.15e+05, 2.37e+05]</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.008194505127780204</v>
+        <v>0.005789468199578728</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Molecular sieve column electricity rate (kW / kg/hr) [0.00599, 0.00666, 0.00732]</t>
+          <t>Vent scrubber exponent [0.5, 0.6, 0.7]</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.003358765862350634</v>
+        <v>-0.003007750680310027</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Stream-lime price (USD/kg) [0.0693, 0.077, 0.0847]</t>
+          <t>Stream-NaOH price (USD/kg) [0.369, 0.41, 0.451]</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.002729513869180554</v>
+        <v>-0.005164581038583241</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Stream-NaOH price (USD/kg) [0.369, 0.41, 0.451]</t>
+          <t>Stream-makeup water price (USD/kg) [0.000229, 0.000254, 0.000279]</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.01418126696725068</v>
+        <v>-0.007360968198438728</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
+          <t>Stream-enzyme price (USD/kg) [0.45, 0.5, 0.55]</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.01150740833229633</v>
+        <v>-0.01016832223073289</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Stream-HCl1 price (USD/kg) [0.184, 0.205, 0.226]</t>
+          <t>Stream-lipid cane price (USD/kg) [0.0311, 0.0345, 0.038]</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.003453193290127731</v>
+        <v>-0.4524700086268003</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Stream-makeup water price (USD/kg) [0.000229, 0.000254, 0.000279]</t>
+          <t>Stream-denaturant price (USD/kg) [0.68, 0.756, 0.832]</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.01921223107248924</v>
+        <v>-0.02224231192969247</v>
       </c>
     </row>
     <row r="76">
@@ -1120,57 +1120,57 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.02902805847312233</v>
+        <v>-0.001048330409933216</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Stream-catalyst price (USD/kg) [2.64, 2.93, 3.22]</t>
+          <t>Stream-lime price (USD/kg) [0.0693, 0.077, 0.0847]</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.02735314736612589</v>
+        <v>-0.007091849563673982</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Stream-HCl2 price (USD/kg) [0.184, 0.205, 0.226]</t>
+          <t>Stream-catalyst price (USD/kg) [2.64, 2.93, 3.22]</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.001377904375116175</v>
+        <v>-0.0005589745183589806</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Stream-lipid cane price (USD/kg) [0.0311, 0.0345, 0.038]</t>
+          <t>Stream-biodiesel wash water price (USD/kg) [0.000318, 0.000353, 0.000388]</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.4463691856307673</v>
+        <v>0.009149620685984827</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Stream-enzyme price (USD/kg) [0.45, 0.5, 0.55]</t>
+          <t>Stream-HCl1 price (USD/kg) [0.184, 0.205, 0.226]</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.01769462893178515</v>
+        <v>-0.00194494625379785</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Stream-crude glycerol price (USD/kg) [0.189, 0.21, 0.231]</t>
+          <t>Stream-HCl2 price (USD/kg) [0.184, 0.205, 0.226]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.007075559131022363</v>
+        <v>-0.003239262081570483</v>
       </c>
     </row>
     <row r="82">
@@ -1180,117 +1180,127 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5561042575401702</v>
+        <v>0.5810868339954733</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Stream-biodiesel price (USD/kg) [1.24, 1.38, 1.52]</t>
+          <t>Stream-crude glycerol price (USD/kg) [0.189, 0.21, 0.231]</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2306864395314576</v>
+        <v>-0.006844185585767422</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Stream-waste price (USD/kg) [-0.297, -0.33, -0.363]</t>
+          <t>Stream-biodiesel price (USD/kg) [1.24, 1.38, 1.52]</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01528399616335985</v>
+        <v>0.241351526934061</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Electricity price (USD/kWhr) [0.0585, 0.065, 0.0715]</t>
+          <t>Stream-waste price (USD/kg) [-0.297, -0.33, -0.363]</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1265244543089782</v>
+        <v>0.01869677863587114</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Chilled Brine price (USD/kJ) [-7.33e-06, -8.15e-06, -8.96e-06]</t>
+          <t>Electricity price (USD/kWhr) [0.0585, 0.065, 0.0715]</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.003055991738239669</v>
+        <v>0.1701185863567434</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Low pressure steam price (USD/kmol) [0.276, 0.306, 0.337]</t>
+          <t>chilled brine price (USD/kJ) [7.33e-06, 8.15e-06, 8.96e-06]</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01982691228107649</v>
+        <v>0.01701112426444497</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Medium pressure steam price (USD/kmol) [0.248, 0.276, 0.303]</t>
+          <t>low pressure steam price (USD/kmol) [0.276, 0.306, 0.337]</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01015214037408561</v>
+        <v>-0.01162359166494366</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>High pressure steam price (USD/kmol) [0.285, 0.317, 0.349]</t>
+          <t>medium pressure steam price (USD/kmol) [0.248, 0.276, 0.303]</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.00557944025517761</v>
+        <v>-0.01455475315819012</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>TEA income tax [0.315, 0.35, 0.385]</t>
+          <t>high pressure steam price (USD/kmol) [0.285, 0.317, 0.349]</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.1211673084946923</v>
+        <v>0.01335742488629699</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator-BT boiler efficiency [0.72, 0.8, 0.88]</t>
+          <t>TEA income tax [0.315, 0.35, 0.385]</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1661222065168882</v>
+        <v>-0.1272386712015468</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Boiler turbogenerator-BT turbo generator efficiency [0.765, 0.85, 0.935]</t>
+          <t>Boiler turbogenerator-BT boiler efficiency [0.72, 0.8, 0.88]</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.008218310632732425</v>
+        <v>0.1519541021101641</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
+          <t>Boiler turbogenerator-BT turbo generator efficiency [0.765, 0.85, 0.935]</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.004701488348059533</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
           <t>Stream-lipid cane lipid fraction [0.045, 0.05, 0.055]</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>0.1123174064446962</v>
+      <c r="B94" t="n">
+        <v>0.1145441546617662</v>
       </c>
     </row>
   </sheetData>
